--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H2">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I2">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J2">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N2">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O2">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P2">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q2">
-        <v>6.565069377474666</v>
+        <v>20.07582305448978</v>
       </c>
       <c r="R2">
-        <v>59.085624397272</v>
+        <v>180.682407490408</v>
       </c>
       <c r="S2">
-        <v>0.004874317198846318</v>
+        <v>0.0246922371483914</v>
       </c>
       <c r="T2">
-        <v>0.00487431719884632</v>
+        <v>0.0246922371483914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H3">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I3">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J3">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.444981</v>
       </c>
       <c r="O3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q3">
-        <v>16.04576684490633</v>
+        <v>31.09170860807867</v>
       </c>
       <c r="R3">
-        <v>144.411901604157</v>
+        <v>279.825377472708</v>
       </c>
       <c r="S3">
-        <v>0.01191337864138311</v>
+        <v>0.03824121383295746</v>
       </c>
       <c r="T3">
-        <v>0.01191337864138311</v>
+        <v>0.03824121383295746</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H4">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I4">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J4">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N4">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q4">
-        <v>6.51433633598</v>
+        <v>13.31507220415911</v>
       </c>
       <c r="R4">
-        <v>58.62902702382</v>
+        <v>119.835649837432</v>
       </c>
       <c r="S4">
-        <v>0.004836649822846348</v>
+        <v>0.01637685885259499</v>
       </c>
       <c r="T4">
-        <v>0.004836649822846349</v>
+        <v>0.01637685885259498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H5">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I5">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J5">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N5">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O5">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P5">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q5">
-        <v>12.341682464298</v>
+        <v>15.93466085948978</v>
       </c>
       <c r="R5">
-        <v>111.075142178682</v>
+        <v>143.411947735408</v>
       </c>
       <c r="S5">
-        <v>0.009163235243915728</v>
+        <v>0.01959881912456474</v>
       </c>
       <c r="T5">
-        <v>0.009163235243915732</v>
+        <v>0.01959881912456474</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H6">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I6">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J6">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N6">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O6">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P6">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q6">
-        <v>1.044396259727333</v>
+        <v>2.217342388054222</v>
       </c>
       <c r="R6">
-        <v>9.399566337546</v>
+        <v>19.956081492488</v>
       </c>
       <c r="S6">
-        <v>0.0007754249587470336</v>
+        <v>0.002727217904661237</v>
       </c>
       <c r="T6">
-        <v>0.0007754249587470338</v>
+        <v>0.002727217904661237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H7">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I7">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J7">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N7">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O7">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P7">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q7">
-        <v>6.213844070722444</v>
+        <v>14.08013433230844</v>
       </c>
       <c r="R7">
-        <v>55.92459663650199</v>
+        <v>126.721208990776</v>
       </c>
       <c r="S7">
-        <v>0.004613545612905977</v>
+        <v>0.01731784620092148</v>
       </c>
       <c r="T7">
-        <v>0.00461354561290598</v>
+        <v>0.01731784620092148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>40.738953</v>
       </c>
       <c r="I8">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J8">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N8">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O8">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P8">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q8">
-        <v>73.052981882392</v>
+        <v>115.2890008741353</v>
       </c>
       <c r="R8">
-        <v>657.4768369415281</v>
+        <v>1037.601007867218</v>
       </c>
       <c r="S8">
-        <v>0.05423909261920452</v>
+        <v>0.1417995836314469</v>
       </c>
       <c r="T8">
-        <v>0.05423909261920454</v>
+        <v>0.1417995836314469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>40.738953</v>
       </c>
       <c r="I9">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J9">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>39.444981</v>
       </c>
       <c r="O9">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P9">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q9">
         <v>178.549691893877</v>
@@ -1013,10 +1013,10 @@
         <v>1606.947227044893</v>
       </c>
       <c r="S9">
-        <v>0.1325664336515832</v>
+        <v>0.219607003062813</v>
       </c>
       <c r="T9">
-        <v>0.1325664336515832</v>
+        <v>0.219607003062813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>40.738953</v>
       </c>
       <c r="I10">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J10">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N10">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O10">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P10">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q10">
-        <v>72.48844863102001</v>
+        <v>76.46418116049134</v>
       </c>
       <c r="R10">
-        <v>652.39603767918</v>
+        <v>688.1776304444219</v>
       </c>
       <c r="S10">
-        <v>0.05381994790370091</v>
+        <v>0.09404703804410966</v>
       </c>
       <c r="T10">
-        <v>0.05381994790370091</v>
+        <v>0.09404703804410965</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>40.738953</v>
       </c>
       <c r="I11">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J11">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N11">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O11">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P11">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q11">
-        <v>137.332395687402</v>
+        <v>91.50763706038532</v>
       </c>
       <c r="R11">
-        <v>1235.991561186618</v>
+        <v>823.5687335434678</v>
       </c>
       <c r="S11">
-        <v>0.1019641407834391</v>
+        <v>0.1125497205793832</v>
       </c>
       <c r="T11">
-        <v>0.1019641407834391</v>
+        <v>0.1125497205793832</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>40.738953</v>
       </c>
       <c r="I12">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J12">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N12">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O12">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P12">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q12">
-        <v>11.621546803706</v>
+        <v>12.73348483998867</v>
       </c>
       <c r="R12">
-        <v>104.593921233354</v>
+        <v>114.601363559898</v>
       </c>
       <c r="S12">
-        <v>0.008628561589442274</v>
+        <v>0.01566153609448805</v>
       </c>
       <c r="T12">
-        <v>0.008628561589442276</v>
+        <v>0.01566153609448804</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>40.738953</v>
       </c>
       <c r="I13">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J13">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N13">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O13">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P13">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q13">
-        <v>69.14471305908866</v>
+        <v>80.85768712642731</v>
       </c>
       <c r="R13">
-        <v>622.3024175317979</v>
+        <v>727.7191841378459</v>
       </c>
       <c r="S13">
-        <v>0.05133734994935474</v>
+        <v>0.09945082601979129</v>
       </c>
       <c r="T13">
-        <v>0.05133734994935477</v>
+        <v>0.09945082601979129</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H14">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I14">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J14">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N14">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O14">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P14">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q14">
-        <v>101.6708530339093</v>
+        <v>33.40453625419023</v>
       </c>
       <c r="R14">
-        <v>915.0376773051839</v>
+        <v>300.640826287712</v>
       </c>
       <c r="S14">
-        <v>0.07548678605970649</v>
+        <v>0.04108587372889984</v>
       </c>
       <c r="T14">
-        <v>0.0754867860597065</v>
+        <v>0.04108587372889983</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H15">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I15">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J15">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>39.444981</v>
       </c>
       <c r="O15">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P15">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q15">
-        <v>248.4949829018227</v>
+        <v>51.73407359610133</v>
       </c>
       <c r="R15">
-        <v>2236.454846116404</v>
+        <v>465.606662364912</v>
       </c>
       <c r="S15">
-        <v>0.1844981826302185</v>
+        <v>0.06363026862809404</v>
       </c>
       <c r="T15">
-        <v>0.1844981826302185</v>
+        <v>0.06363026862809404</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H16">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I16">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J16">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N16">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O16">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P16">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q16">
-        <v>100.88516878456</v>
+        <v>22.15519687356089</v>
       </c>
       <c r="R16">
-        <v>907.9665190610399</v>
+        <v>199.396771862048</v>
       </c>
       <c r="S16">
-        <v>0.07490344504238138</v>
+        <v>0.02724976075882079</v>
       </c>
       <c r="T16">
-        <v>0.07490344504238138</v>
+        <v>0.02724976075882079</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H17">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I17">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J17">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N17">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O17">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P17">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q17">
-        <v>191.131168898856</v>
+        <v>26.51397927419022</v>
       </c>
       <c r="R17">
-        <v>1720.180520089704</v>
+        <v>238.625813467712</v>
       </c>
       <c r="S17">
-        <v>0.1419077073268735</v>
+        <v>0.03261084052239761</v>
       </c>
       <c r="T17">
-        <v>0.1419077073268735</v>
+        <v>0.03261084052239761</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H18">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I18">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J18">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N18">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O18">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P18">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q18">
-        <v>16.17418682523466</v>
+        <v>3.689477337425778</v>
       </c>
       <c r="R18">
-        <v>145.567681427112</v>
+        <v>33.205296036832</v>
       </c>
       <c r="S18">
-        <v>0.01200872564882489</v>
+        <v>0.004537868715123934</v>
       </c>
       <c r="T18">
-        <v>0.01200872564882489</v>
+        <v>0.004537868715123934</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H19">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I19">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J19">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N19">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O19">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P19">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q19">
-        <v>96.23155384430487</v>
+        <v>23.42819801165155</v>
       </c>
       <c r="R19">
-        <v>866.0839845987438</v>
+        <v>210.853782104864</v>
       </c>
       <c r="S19">
-        <v>0.07144831090199866</v>
+        <v>0.02881548715054036</v>
       </c>
       <c r="T19">
-        <v>0.07144831090199869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.102695</v>
-      </c>
-      <c r="I20">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J20">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>5.379592</v>
-      </c>
-      <c r="N20">
-        <v>16.138776</v>
-      </c>
-      <c r="O20">
-        <v>0.1347369221116526</v>
-      </c>
-      <c r="P20">
-        <v>0.1347369221116527</v>
-      </c>
-      <c r="Q20">
-        <v>0.1841524001466667</v>
-      </c>
-      <c r="R20">
-        <v>1.65737160132</v>
-      </c>
-      <c r="S20">
-        <v>0.0001367262338953386</v>
-      </c>
-      <c r="T20">
-        <v>0.0001367262338953387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.102695</v>
-      </c>
-      <c r="I21">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J21">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>13.148327</v>
-      </c>
-      <c r="N21">
-        <v>39.444981</v>
-      </c>
-      <c r="O21">
-        <v>0.3293121691937864</v>
-      </c>
-      <c r="P21">
-        <v>0.3293121691937864</v>
-      </c>
-      <c r="Q21">
-        <v>0.4500891470883334</v>
-      </c>
-      <c r="R21">
-        <v>4.050802323795001</v>
-      </c>
-      <c r="S21">
-        <v>0.0003341742706016361</v>
-      </c>
-      <c r="T21">
-        <v>0.0003341742706016361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.102695</v>
-      </c>
-      <c r="I22">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J22">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>5.33802</v>
-      </c>
-      <c r="N22">
-        <v>16.01406</v>
-      </c>
-      <c r="O22">
-        <v>0.133695712420281</v>
-      </c>
-      <c r="P22">
-        <v>0.133695712420281</v>
-      </c>
-      <c r="Q22">
-        <v>0.1827293213</v>
-      </c>
-      <c r="R22">
-        <v>1.6445638917</v>
-      </c>
-      <c r="S22">
-        <v>0.0001356696513523694</v>
-      </c>
-      <c r="T22">
-        <v>0.0001356696513523694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.102695</v>
-      </c>
-      <c r="I23">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J23">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>10.113102</v>
-      </c>
-      <c r="N23">
-        <v>30.339306</v>
-      </c>
-      <c r="O23">
-        <v>0.2532921151792178</v>
-      </c>
-      <c r="P23">
-        <v>0.2532921151792179</v>
-      </c>
-      <c r="Q23">
-        <v>0.34618833663</v>
-      </c>
-      <c r="R23">
-        <v>3.11569502967</v>
-      </c>
-      <c r="S23">
-        <v>0.0002570318249895935</v>
-      </c>
-      <c r="T23">
-        <v>0.0002570318249895936</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.102695</v>
-      </c>
-      <c r="I24">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J24">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.855806</v>
-      </c>
-      <c r="N24">
-        <v>2.567418</v>
-      </c>
-      <c r="O24">
-        <v>0.02143446312744256</v>
-      </c>
-      <c r="P24">
-        <v>0.02143446312744257</v>
-      </c>
-      <c r="Q24">
-        <v>0.02929566572333333</v>
-      </c>
-      <c r="R24">
-        <v>0.26366099151</v>
-      </c>
-      <c r="S24">
-        <v>2.175093042837341E-05</v>
-      </c>
-      <c r="T24">
-        <v>2.175093042837342E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.102695</v>
-      </c>
-      <c r="I25">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J25">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.091788666666666</v>
-      </c>
-      <c r="N25">
-        <v>15.275366</v>
-      </c>
-      <c r="O25">
-        <v>0.1275286179676195</v>
-      </c>
-      <c r="P25">
-        <v>0.1275286179676196</v>
-      </c>
-      <c r="Q25">
-        <v>0.1743004123744444</v>
-      </c>
-      <c r="R25">
-        <v>1.56870371137</v>
-      </c>
-      <c r="S25">
-        <v>0.0001294115033601621</v>
-      </c>
-      <c r="T25">
-        <v>0.0001294115033601622</v>
+        <v>0.02881548715054036</v>
       </c>
     </row>
   </sheetData>
